--- a/Unity/Assets/Config/Excel/FirstWinConfig.xlsx
+++ b/Unity/Assets/Config/Excel/FirstWinConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140997D1-26F0-4A07-9603-104C540E337A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935B3804-EA47-4BD0-B186-7A1DB778740D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -82,98 +82,103 @@
     <t>10000101;1@1;10000</t>
   </si>
   <si>
-    <t>10000101;1@10000121;1@1;15000</t>
-  </si>
-  <si>
-    <t>10000101;1@10010083;5@1;20000</t>
-  </si>
-  <si>
     <t>10000101;1@1;15000</t>
   </si>
   <si>
-    <t>10000101;1@10000122;1@1;20000</t>
-  </si>
-  <si>
-    <t>10000101;1@10010083;5@1;30000</t>
-  </si>
-  <si>
     <t>10000102;1@1;20000</t>
   </si>
   <si>
-    <t>10000102;1@10000123;1@1;30000</t>
-  </si>
-  <si>
-    <t>10000102;1@10010083;5@1;50000</t>
-  </si>
-  <si>
     <t>10000103;1@1;20000</t>
   </si>
   <si>
-    <t>10000103;1@10000124;1@1;30000</t>
-  </si>
-  <si>
-    <t>10000103;1@10010083;5@1;50000</t>
-  </si>
-  <si>
     <t>10000104;1@1;20000</t>
   </si>
   <si>
-    <t>10000104;1@10000125;1@1;30000</t>
-  </si>
-  <si>
-    <t>10000104;1@10010083;5@1;50000</t>
-  </si>
-  <si>
-    <t>1;20000@10021008;2</t>
-  </si>
-  <si>
-    <t>1;30000@10021009;1@10000121;1</t>
-  </si>
-  <si>
-    <t>1;50000@10010083;10@10010039;1@10000143;2</t>
-  </si>
-  <si>
-    <t>1;30000@10022008;2</t>
-  </si>
-  <si>
-    <t>1;50000@10022009;1@10000122;1</t>
-  </si>
-  <si>
-    <t>1;80000@10010083;10@10010039;1@10000143;2</t>
-  </si>
-  <si>
-    <t>1;50000@10023008;2</t>
-  </si>
-  <si>
-    <t>1;75000@10023009;1@10000123;1</t>
-  </si>
-  <si>
-    <t>1;100000@10010083;10@10010039;1@10000143;2</t>
-  </si>
-  <si>
-    <t>1;70000@10024008;2</t>
-  </si>
-  <si>
-    <t>1;100000@10024009;1@10000124;1</t>
-  </si>
-  <si>
-    <t>1;150000@10010083;10@10010039;1@10000143;2</t>
-  </si>
-  <si>
-    <t>1;100000@10025008;2</t>
-  </si>
-  <si>
-    <t>1;150000@10025009;1@10000125;1</t>
-  </si>
-  <si>
-    <t>1;200000@10010083;10@10010039;1@10000143;2</t>
+    <t>1;30000@1022008;2</t>
+  </si>
+  <si>
+    <t>1;50000@1023008;2</t>
+  </si>
+  <si>
+    <t>1;70000@1024008;2</t>
+  </si>
+  <si>
+    <t>1;20000@1021008;2</t>
+  </si>
+  <si>
+    <t>1;100000@1025008;2</t>
+  </si>
+  <si>
+    <t>1;30000@1021009;1@1010121;1</t>
+  </si>
+  <si>
+    <t>1;50000@1022009;1@1010122;1</t>
+  </si>
+  <si>
+    <t>1;75000@1023009;1@1010123;1</t>
+  </si>
+  <si>
+    <t>1;101000@1024009;1@1010124;1</t>
+  </si>
+  <si>
+    <t>1;150000@1025009;1@1010125;1</t>
+  </si>
+  <si>
+    <t>1;50000@1000018;10@1010032;1@1000022;2</t>
+  </si>
+  <si>
+    <t>1;80000@1000018;10@1010032;1@1000022;2</t>
+  </si>
+  <si>
+    <t>1;100000@1000018;10@1010032;1@1000022;2</t>
+  </si>
+  <si>
+    <t>1;150000@1000018;10@1010032;1@1000022;2</t>
+  </si>
+  <si>
+    <t>1;200000@1000018;10@1010032;1@1000022;2</t>
+  </si>
+  <si>
+    <t>1010011;1@1000018;5@1;15000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010011;1@1000018;5@1;20000</t>
+  </si>
+  <si>
+    <t>1010011;1@1000018;5@1;20000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010012;1@1000018;5@1;30000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010013;1@1000018;5@1;30000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010014;1@1000018;5@1;30000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010011;1@1000018;5@1;30000</t>
+  </si>
+  <si>
+    <t>1010012;1@1000018;5@1;50000</t>
+  </si>
+  <si>
+    <t>1010013;1@1000018;5@1;50000</t>
+  </si>
+  <si>
+    <t>1010014;1@1000018;5@1;50000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,8 +206,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,8 +227,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -224,11 +242,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,6 +270,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -721,26 +755,26 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
-        <v>70001011</v>
+      <c r="E6" s="5">
+        <v>310162</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -752,26 +786,26 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
-        <v>70001104</v>
+      <c r="E7" s="5">
+        <v>310163</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -789,26 +823,26 @@
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
-        <v>70001206</v>
+      <c r="E8" s="5">
+        <v>310164</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -826,26 +860,26 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
-        <v>70001209</v>
+      <c r="E9" s="5">
+        <v>310165</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -863,26 +897,26 @@
       <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="E10" s="1">
-        <v>70002003</v>
+      <c r="E10" s="5">
+        <v>320161</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -900,26 +934,26 @@
       <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="E11" s="1">
-        <v>70002007</v>
+      <c r="E11" s="5">
+        <v>320162</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -937,26 +971,26 @@
       <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="E12" s="1">
-        <v>70002012</v>
+      <c r="E12" s="5">
+        <v>320163</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -969,31 +1003,31 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
-        <v>30001</v>
+        <v>20004</v>
       </c>
       <c r="D13" s="1">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>70003003</v>
+        <v>2</v>
+      </c>
+      <c r="E13" s="5">
+        <v>320164</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="K13" s="4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -1006,31 +1040,31 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1">
-        <v>30002</v>
+        <v>20005</v>
       </c>
       <c r="D14" s="1">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1">
-        <v>70003006</v>
+        <v>2</v>
+      </c>
+      <c r="E14" s="5">
+        <v>320165</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="K14" s="4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1043,31 +1077,31 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1">
-        <v>30003</v>
+        <v>30001</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
       </c>
-      <c r="E15" s="1">
-        <v>70003012</v>
+      <c r="E15" s="5">
+        <v>330161</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="K15" s="4" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1080,31 +1114,31 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1">
-        <v>30004</v>
+        <v>30002</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
       </c>
-      <c r="E16" s="1">
-        <v>70003016</v>
+      <c r="E16" s="5">
+        <v>330162</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="K16" s="4" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1117,31 +1151,31 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1">
-        <v>40001</v>
+        <v>30003</v>
       </c>
       <c r="D17" s="1">
-        <v>4</v>
-      </c>
-      <c r="E17" s="1">
-        <v>70004003</v>
+        <v>3</v>
+      </c>
+      <c r="E17" s="5">
+        <v>330163</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1154,31 +1188,31 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1">
-        <v>40002</v>
+        <v>30004</v>
       </c>
       <c r="D18" s="1">
-        <v>4</v>
-      </c>
-      <c r="E18" s="1">
-        <v>70004006</v>
+        <v>3</v>
+      </c>
+      <c r="E18" s="5">
+        <v>330164</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1191,31 +1225,31 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1">
-        <v>40003</v>
+        <v>30005</v>
       </c>
       <c r="D19" s="1">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1">
-        <v>70004010</v>
+        <v>3</v>
+      </c>
+      <c r="E19" s="5">
+        <v>330165</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1228,31 +1262,31 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1">
-        <v>40004</v>
+        <v>40001</v>
       </c>
       <c r="D20" s="1">
         <v>4</v>
       </c>
-      <c r="E20" s="1">
-        <v>70004013</v>
+      <c r="E20" s="5">
+        <v>340161</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="K20" s="4" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1265,31 +1299,31 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1">
-        <v>50001</v>
+        <v>40002</v>
       </c>
       <c r="D21" s="1">
-        <v>5</v>
-      </c>
-      <c r="E21" s="1">
-        <v>70005003</v>
+        <v>4</v>
+      </c>
+      <c r="E21" s="5">
+        <v>340162</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1302,31 +1336,31 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1">
-        <v>50002</v>
+        <v>40003</v>
       </c>
       <c r="D22" s="1">
-        <v>5</v>
-      </c>
-      <c r="E22" s="1">
-        <v>70005004</v>
+        <v>4</v>
+      </c>
+      <c r="E22" s="5">
+        <v>340163</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1339,31 +1373,31 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1">
-        <v>50003</v>
+        <v>40004</v>
       </c>
       <c r="D23" s="1">
-        <v>5</v>
-      </c>
-      <c r="E23" s="1">
-        <v>70005012</v>
+        <v>4</v>
+      </c>
+      <c r="E23" s="5">
+        <v>340164</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -1376,31 +1410,31 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1">
-        <v>50004</v>
+        <v>40005</v>
       </c>
       <c r="D24" s="1">
-        <v>5</v>
-      </c>
-      <c r="E24" s="1">
-        <v>70005013</v>
+        <v>4</v>
+      </c>
+      <c r="E24" s="5">
+        <v>340165</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -1413,31 +1447,31 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1">
-        <v>60001</v>
+        <v>50001</v>
       </c>
       <c r="D25" s="1">
-        <v>6</v>
-      </c>
-      <c r="E25" s="1">
-        <v>70006011</v>
+        <v>5</v>
+      </c>
+      <c r="E25" s="5">
+        <v>350161</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -1450,31 +1484,31 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1">
-        <v>60002</v>
+        <v>50002</v>
       </c>
       <c r="D26" s="1">
-        <v>6</v>
-      </c>
-      <c r="E26" s="1">
-        <v>70006012</v>
+        <v>5</v>
+      </c>
+      <c r="E26" s="5">
+        <v>350162</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -1483,9 +1517,117 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1">
+        <v>50003</v>
+      </c>
+      <c r="D27" s="1">
+        <v>5</v>
+      </c>
+      <c r="E27" s="5">
+        <v>350163</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1">
+        <v>50004</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5</v>
+      </c>
+      <c r="E28" s="5">
+        <v>350164</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1">
+        <v>50005</v>
+      </c>
+      <c r="D29" s="1">
+        <v>5</v>
+      </c>
+      <c r="E29" s="5">
+        <v>350165</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+    </row>
     <row r="30" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1496,6 +1638,9 @@
     <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/FirstWinConfig.xlsx
+++ b/Unity/Assets/Config/Excel/FirstWinConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935B3804-EA47-4BD0-B186-7A1DB778740D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC53E5FE-ADB9-46EC-A14E-C2DA6666C184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="55">
   <si>
     <t>Id</t>
   </si>
@@ -79,99 +79,118 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>10000101;1@1;10000</t>
-  </si>
-  <si>
-    <t>10000101;1@1;15000</t>
-  </si>
-  <si>
-    <t>10000102;1@1;20000</t>
-  </si>
-  <si>
-    <t>10000103;1@1;20000</t>
-  </si>
-  <si>
-    <t>10000104;1@1;20000</t>
-  </si>
-  <si>
-    <t>1;30000@1022008;2</t>
-  </si>
-  <si>
-    <t>1;50000@1023008;2</t>
-  </si>
-  <si>
-    <t>1;70000@1024008;2</t>
-  </si>
-  <si>
-    <t>1;20000@1021008;2</t>
-  </si>
-  <si>
-    <t>1;100000@1025008;2</t>
-  </si>
-  <si>
-    <t>1;30000@1021009;1@1010121;1</t>
-  </si>
-  <si>
-    <t>1;50000@1022009;1@1010122;1</t>
-  </si>
-  <si>
-    <t>1;75000@1023009;1@1010123;1</t>
-  </si>
-  <si>
-    <t>1;101000@1024009;1@1010124;1</t>
-  </si>
-  <si>
-    <t>1;150000@1025009;1@1010125;1</t>
-  </si>
-  <si>
-    <t>1;50000@1000018;10@1010032;1@1000022;2</t>
-  </si>
-  <si>
-    <t>1;80000@1000018;10@1010032;1@1000022;2</t>
-  </si>
-  <si>
-    <t>1;100000@1000018;10@1010032;1@1000022;2</t>
-  </si>
-  <si>
-    <t>1;150000@1000018;10@1010032;1@1000022;2</t>
-  </si>
-  <si>
-    <t>1;200000@1000018;10@1010032;1@1000022;2</t>
-  </si>
-  <si>
-    <t>1010011;1@1000018;5@1;15000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010011;1@1000018;5@1;20000</t>
-  </si>
-  <si>
-    <t>1010011;1@1000018;5@1;20000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010012;1@1000018;5@1;30000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010013;1@1000018;5@1;30000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010014;1@1000018;5@1;30000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010011;1@1000018;5@1;30000</t>
-  </si>
-  <si>
-    <t>1010012;1@1000018;5@1;50000</t>
-  </si>
-  <si>
-    <t>1010013;1@1000018;5@1;50000</t>
-  </si>
-  <si>
-    <t>1010014;1@1000018;5@1;50000</t>
+    <t>1;30000@1020001;40@1021008;1@1010035;2</t>
+  </si>
+  <si>
+    <t>1;50000@1020001;40@1022008;1@1010035;2</t>
+  </si>
+  <si>
+    <t>1;50000@1020001;40@1023008;1@1010035;2</t>
+  </si>
+  <si>
+    <t>1;100000@1020001;40@1024008;1@1010035;2</t>
+  </si>
+  <si>
+    <t>1;100000@1020001;40@1025008;1@1010035;2</t>
+  </si>
+  <si>
+    <t>1;50000@1020001;60@1021008;1@1010035;3</t>
+  </si>
+  <si>
+    <t>1;100000@1020001;60@1022008;1@1010035;3</t>
+  </si>
+  <si>
+    <t>1;100000@1020001;60@1023008;1@1010035;3</t>
+  </si>
+  <si>
+    <t>1;150000@1020001;60@1024008;1@1010035;3</t>
+  </si>
+  <si>
+    <t>1;150000@1020001;60@1025008;1@1010035;3</t>
+  </si>
+  <si>
+    <t>1;100000@1020001;100@1021009;1@1010035;5@1010021;1</t>
+  </si>
+  <si>
+    <t>1;150000@1020001;100@1022009;1@1010035;5@1010022;1</t>
+  </si>
+  <si>
+    <t>1;150000@1020001;100@1023009;1@1010035;5@1010023;1</t>
+  </si>
+  <si>
+    <t>1;200000@1020001;100@1024009;1@1010035;5@1010024;1</t>
+  </si>
+  <si>
+    <t>1;200000@1020001;100@1025009;1@1010035;5@1010025;1</t>
+  </si>
+  <si>
+    <t>1;15000@1010035;2</t>
+  </si>
+  <si>
+    <t>1;25000@1010035;2</t>
+  </si>
+  <si>
+    <t>1;50000@1010035;2</t>
+  </si>
+  <si>
+    <t>1;25000@1010035;3</t>
+  </si>
+  <si>
+    <t>1;50000@1010035;3</t>
+  </si>
+  <si>
+    <t>1;75000@1010035;3</t>
+  </si>
+  <si>
+    <t>1;50000@1010035;5@1000018;5</t>
+  </si>
+  <si>
+    <t>1;50000@1010035;5@1021008;1</t>
+  </si>
+  <si>
+    <t>1;50000@1010035;5@1021009;1</t>
+  </si>
+  <si>
+    <t>1;50000@1010035;5@1010021;1</t>
+  </si>
+  <si>
+    <t>1;75000@1010035;5@1000018;5</t>
+  </si>
+  <si>
+    <t>1;75000@1010035;5@1022008;1</t>
+  </si>
+  <si>
+    <t>1;75000@1010035;5@1010022;1</t>
+  </si>
+  <si>
+    <t>1;75000@1010035;5@1023008;1</t>
+  </si>
+  <si>
+    <t>1;75000@1010035;5@1023009;1</t>
+  </si>
+  <si>
+    <t>1;75000@1010035;5@1010023;1</t>
+  </si>
+  <si>
+    <t>1;100000@1010035;5@1000018;5</t>
+  </si>
+  <si>
+    <t>1;100000@1010035;5@1024008;1</t>
+  </si>
+  <si>
+    <t>1;100000@1010035;5@1024009;1</t>
+  </si>
+  <si>
+    <t>1;100000@1010035;5@1010024;1</t>
+  </si>
+  <si>
+    <t>1;100000@1010035;5@1025008;1</t>
+  </si>
+  <si>
+    <t>1;100000@1010035;5@1025009;1</t>
+  </si>
+  <si>
+    <t>1;100000@1010035;5@1010025;1</t>
   </si>
 </sst>
 </file>
@@ -580,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -590,9 +609,8 @@
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
     <col min="3" max="4" width="12.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="32.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="31.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="43.125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="38.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.75" style="2" customWidth="1"/>
     <col min="10" max="10" width="31.375" style="2" customWidth="1"/>
     <col min="11" max="11" width="43.125" style="2" customWidth="1"/>
@@ -759,19 +777,19 @@
         <v>310162</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="J6" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>38</v>
@@ -790,22 +808,22 @@
         <v>310163</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="J7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -827,22 +845,22 @@
         <v>310164</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="J8" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -864,22 +882,22 @@
         <v>310165</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="J9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -901,22 +919,22 @@
         <v>320161</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="J10" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -938,22 +956,22 @@
         <v>320162</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="J11" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -975,19 +993,19 @@
         <v>320163</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="J12" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>43</v>
@@ -1012,19 +1030,19 @@
         <v>320164</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="J13" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>43</v>
@@ -1049,22 +1067,22 @@
         <v>320165</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="J14" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1086,22 +1104,22 @@
         <v>330161</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="I15" s="4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1123,22 +1141,22 @@
         <v>330162</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="I16" s="4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1160,22 +1178,22 @@
         <v>330163</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="I17" s="4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1197,22 +1215,22 @@
         <v>330164</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="I18" s="4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1234,22 +1252,22 @@
         <v>330165</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="I19" s="4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1271,22 +1289,22 @@
         <v>340161</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="I20" s="4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1308,22 +1326,22 @@
         <v>340162</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="I21" s="4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1345,22 +1363,22 @@
         <v>340163</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="I22" s="4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1382,22 +1400,22 @@
         <v>340164</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="I23" s="4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -1419,22 +1437,22 @@
         <v>340165</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="I24" s="4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -1456,22 +1474,22 @@
         <v>350161</v>
       </c>
       <c r="F25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="I25" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -1493,22 +1511,22 @@
         <v>350162</v>
       </c>
       <c r="F26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="I26" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -1530,22 +1548,22 @@
         <v>350163</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="I27" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -1567,22 +1585,22 @@
         <v>350164</v>
       </c>
       <c r="F28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="I28" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -1604,22 +1622,22 @@
         <v>350165</v>
       </c>
       <c r="F29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="I29" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
